--- a/query.xlsx
+++ b/query.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kingmob/Library/Mobile Documents/com~apple~CloudDocs/PhD/Research/code/comtrade_pull/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE82DABF-3C36-5547-B6BE-D1DAB4E3E8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE938F07-B280-6441-9001-3C4D77478346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{11ED8391-85B0-9A44-BFED-FD8A7506F3DC}"/>
   </bookViews>
@@ -1726,19 +1726,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2061,81 +2055,80 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>541</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" t="s">
         <v>23</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -2143,2722 +2136,2722 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>535</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>2022</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <v>156</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="3">
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2">
         <v>500</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="3">
         <v>2021</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="3">
         <v>156</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="7">
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="3">
         <v>500</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+      <c r="P3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="8" t="s">
+      <c r="R3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="7"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>535</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>156</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="3">
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4">
         <v>500</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="5" t="s">
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="2" t="s">
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <v>2019</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="3">
         <v>156</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="3">
         <v>500</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="7" t="s">
+      <c r="P5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="8" t="s">
+      <c r="R5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>535</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>2018</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>156</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="3">
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6">
         <v>500</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="5" t="s">
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="2" t="s">
+      <c r="R6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <v>2017</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="3">
         <v>156</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="7">
+      <c r="K7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="3">
         <v>500</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
+      <c r="P7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="8" t="s">
+      <c r="R7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>535</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>2016</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>156</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8">
         <v>500</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="5" t="s">
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="2" t="s">
+      <c r="R8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="3">
         <v>2015</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="3">
         <v>156</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="7">
+      <c r="K9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
+      <c r="P9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="8" t="s">
+      <c r="R9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>535</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>2014</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10">
         <v>156</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10">
         <v>500</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="5" t="s">
+      <c r="P10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="2" t="s">
+      <c r="R10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="3">
         <v>2013</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="3">
         <v>156</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="7">
+      <c r="K11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="3">
         <v>500</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="7" t="s">
+      <c r="P11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" s="8" t="s">
+      <c r="R11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>535</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>2012</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12">
         <v>156</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12">
         <v>500</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="5" t="s">
+      <c r="P12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="2" t="s">
+      <c r="R12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="3">
         <v>2011</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="3">
         <v>156</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="7">
+      <c r="K13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="3">
         <v>500</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
+      <c r="P13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="8" t="s">
+      <c r="R13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>535</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>2010</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14">
         <v>156</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14">
         <v>500</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="5" t="s">
+      <c r="P14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="2" t="s">
+      <c r="R14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="3">
         <v>2009</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="3">
         <v>156</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="7">
+      <c r="K15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="3">
         <v>500</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="7" t="s">
+      <c r="P15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="8" t="s">
+      <c r="R15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>535</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>2008</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16">
         <v>156</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="3">
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16">
         <v>500</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="5" t="s">
+      <c r="P16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="2" t="s">
+      <c r="R16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="3">
         <v>2007</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="3">
         <v>156</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="7">
+      <c r="K17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="7" t="s">
+      <c r="P17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="8" t="s">
+      <c r="R17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>535</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>2006</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18">
         <v>156</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18">
         <v>500</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="5" t="s">
+      <c r="P18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" t="s">
         <v>22</v>
       </c>
-      <c r="R18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="2" t="s">
+      <c r="R18" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="3">
         <v>2005</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="G19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="3">
         <v>156</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="7">
+      <c r="K19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="3">
         <v>500</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="P19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S19" s="8" t="s">
+      <c r="R19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" t="s">
         <v>535</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>2004</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20">
         <v>156</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="K20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20">
         <v>500</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" t="s">
         <v>19</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="5" t="s">
+      <c r="P20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" t="s">
         <v>22</v>
       </c>
-      <c r="R20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S20" s="2" t="s">
+      <c r="R20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="3">
         <v>2003</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="3">
         <v>156</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="7">
+      <c r="K21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="7" t="s">
+      <c r="P21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S21" s="8" t="s">
+      <c r="R21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>535</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>2002</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22">
         <v>156</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22">
         <v>500</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" t="s">
         <v>19</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="5" t="s">
+      <c r="P22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S22" s="2" t="s">
+      <c r="R22" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="3">
         <v>2001</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="7" t="s">
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="3">
         <v>156</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="7">
+      <c r="K23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="7" t="s">
+      <c r="P23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S23" s="8" t="s">
+      <c r="R23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" t="s">
         <v>535</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>2000</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24">
         <v>156</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24">
         <v>500</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" t="s">
         <v>19</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="5" t="s">
+      <c r="P24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" t="s">
         <v>22</v>
       </c>
-      <c r="R24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S24" s="2" t="s">
+      <c r="R24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>536</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" t="s">
         <v>535</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>2022</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="3" t="s">
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25">
         <v>156</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" s="3">
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25">
         <v>500</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" t="s">
         <v>19</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="5" t="s">
+      <c r="P25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" t="s">
         <v>22</v>
       </c>
-      <c r="R25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S25" s="2" t="s">
+      <c r="R25" t="s">
+        <v>12</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="3">
         <v>2021</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="7" t="s">
+      <c r="G26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="3">
         <v>156</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="7">
+      <c r="K26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="7" t="s">
+      <c r="P26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S26" s="8" t="s">
+      <c r="R26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" t="s">
         <v>536</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" t="s">
         <v>535</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27">
         <v>2020</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="3" t="s">
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27">
         <v>156</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="K27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27">
         <v>500</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" t="s">
         <v>19</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" s="5" t="s">
+      <c r="P27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" t="s">
         <v>22</v>
       </c>
-      <c r="R27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S27" s="2" t="s">
+      <c r="R27" t="s">
+        <v>12</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="3">
         <v>2019</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="7" t="s">
+      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="3">
         <v>156</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="7">
+      <c r="K28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="3">
         <v>500</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
+      <c r="P28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S28" s="8" t="s">
+      <c r="R28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" t="s">
         <v>536</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" t="s">
         <v>535</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29">
         <v>2018</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29">
         <v>156</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="K29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29">
         <v>500</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="5" t="s">
+      <c r="P29" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" t="s">
         <v>22</v>
       </c>
-      <c r="R29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S29" s="2" t="s">
+      <c r="R29" t="s">
+        <v>12</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="3">
         <v>2017</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="7" t="s">
+      <c r="G30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="3">
         <v>156</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N30" s="7">
+      <c r="K30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="3">
         <v>500</v>
       </c>
-      <c r="O30" s="7" t="s">
+      <c r="O30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q30" s="7" t="s">
+      <c r="P30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S30" s="8" t="s">
+      <c r="R30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S30" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" t="s">
         <v>536</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" t="s">
         <v>535</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31">
         <v>2016</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="3" t="s">
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31">
         <v>156</v>
       </c>
-      <c r="K31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N31" s="3">
+      <c r="K31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31">
         <v>500</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O31" t="s">
         <v>19</v>
       </c>
-      <c r="P31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q31" s="5" t="s">
+      <c r="P31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" t="s">
         <v>22</v>
       </c>
-      <c r="R31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S31" s="2" t="s">
+      <c r="R31" t="s">
+        <v>12</v>
+      </c>
+      <c r="S31" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="3">
         <v>2015</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="7" t="s">
+      <c r="G32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="3">
         <v>156</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" s="7">
+      <c r="K32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="O32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
+      <c r="P32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S32" s="8" t="s">
+      <c r="R32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S32" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" t="s">
         <v>536</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" t="s">
         <v>535</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33">
         <v>2014</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="3" t="s">
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33">
         <v>156</v>
       </c>
-      <c r="K33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="K33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33">
         <v>500</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="O33" t="s">
         <v>19</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q33" s="5" t="s">
+      <c r="P33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" t="s">
         <v>22</v>
       </c>
-      <c r="R33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S33" s="2" t="s">
+      <c r="R33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S33" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="3">
         <v>2013</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="7" t="s">
+      <c r="G34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="3">
         <v>156</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N34" s="7">
+      <c r="K34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="3">
         <v>500</v>
       </c>
-      <c r="O34" s="7" t="s">
+      <c r="O34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q34" s="7" t="s">
+      <c r="P34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S34" s="8" t="s">
+      <c r="R34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S34" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" t="s">
         <v>536</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" t="s">
         <v>535</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35">
         <v>2012</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="3" t="s">
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35">
         <v>156</v>
       </c>
-      <c r="K35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="K35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35">
         <v>500</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="O35" t="s">
         <v>19</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q35" s="5" t="s">
+      <c r="P35" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q35" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S35" s="2" t="s">
+      <c r="R35" t="s">
+        <v>12</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="3">
         <v>2011</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="7" t="s">
+      <c r="G36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="3">
         <v>156</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N36" s="7">
+      <c r="K36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="3">
         <v>500</v>
       </c>
-      <c r="O36" s="7" t="s">
+      <c r="O36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q36" s="7" t="s">
+      <c r="P36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S36" s="8" t="s">
+      <c r="R36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S36" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" t="s">
         <v>536</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" t="s">
         <v>535</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37">
         <v>2010</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="3" t="s">
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
         <v>10</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37">
         <v>156</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N37" s="3">
+      <c r="K37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37">
         <v>500</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="O37" t="s">
         <v>19</v>
       </c>
-      <c r="P37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q37" s="5" t="s">
+      <c r="P37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" t="s">
         <v>22</v>
       </c>
-      <c r="R37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S37" s="2" t="s">
+      <c r="R37" t="s">
+        <v>12</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="3">
         <v>2009</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="7" t="s">
+      <c r="G38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="3">
         <v>156</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N38" s="7">
+      <c r="K38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="3">
         <v>500</v>
       </c>
-      <c r="O38" s="7" t="s">
+      <c r="O38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q38" s="7" t="s">
+      <c r="P38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S38" s="8" t="s">
+      <c r="R38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S38" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" t="s">
         <v>536</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" t="s">
         <v>535</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39">
         <v>2008</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="3" t="s">
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39">
         <v>156</v>
       </c>
-      <c r="K39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N39" s="3">
+      <c r="K39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39">
         <v>500</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="O39" t="s">
         <v>19</v>
       </c>
-      <c r="P39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q39" s="5" t="s">
+      <c r="P39" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q39" t="s">
         <v>22</v>
       </c>
-      <c r="R39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S39" s="2" t="s">
+      <c r="R39" t="s">
+        <v>12</v>
+      </c>
+      <c r="S39" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="3">
         <v>2007</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="7" t="s">
+      <c r="G40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="3">
         <v>156</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N40" s="7">
+      <c r="K40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" s="3">
         <v>500</v>
       </c>
-      <c r="O40" s="7" t="s">
+      <c r="O40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q40" s="7" t="s">
+      <c r="P40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S40" s="8" t="s">
+      <c r="R40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S40" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" t="s">
         <v>536</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" t="s">
         <v>535</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41">
         <v>2006</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="3" t="s">
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41">
         <v>156</v>
       </c>
-      <c r="K41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="K41" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41">
         <v>500</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="O41" t="s">
         <v>19</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q41" s="5" t="s">
+      <c r="P41" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q41" t="s">
         <v>22</v>
       </c>
-      <c r="R41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S41" s="2" t="s">
+      <c r="R41" t="s">
+        <v>12</v>
+      </c>
+      <c r="S41" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="3">
         <v>2005</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="7" t="s">
+      <c r="G42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="3">
         <v>156</v>
       </c>
-      <c r="K42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N42" s="7">
+      <c r="K42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" s="3">
         <v>500</v>
       </c>
-      <c r="O42" s="7" t="s">
+      <c r="O42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q42" s="7" t="s">
+      <c r="P42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S42" s="8" t="s">
+      <c r="R42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S42" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" t="s">
         <v>536</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" t="s">
         <v>535</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43">
         <v>2004</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="3" t="s">
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
         <v>10</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43">
         <v>156</v>
       </c>
-      <c r="K43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="K43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43">
         <v>500</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="O43" t="s">
         <v>19</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q43" s="5" t="s">
+      <c r="P43" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43" t="s">
         <v>22</v>
       </c>
-      <c r="R43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S43" s="2" t="s">
+      <c r="R43" t="s">
+        <v>12</v>
+      </c>
+      <c r="S43" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="3">
         <v>2003</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="7" t="s">
+      <c r="G44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="3">
         <v>156</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N44" s="7">
+      <c r="K44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" s="3">
         <v>500</v>
       </c>
-      <c r="O44" s="7" t="s">
+      <c r="O44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q44" s="7" t="s">
+      <c r="P44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S44" s="8" t="s">
+      <c r="R44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S44" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" t="s">
         <v>536</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" t="s">
         <v>535</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45">
         <v>2002</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45">
         <v>156</v>
       </c>
-      <c r="K45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="K45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45">
         <v>500</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" t="s">
         <v>19</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q45" s="5" t="s">
+      <c r="P45" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q45" t="s">
         <v>22</v>
       </c>
-      <c r="R45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S45" s="2" t="s">
+      <c r="R45" t="s">
+        <v>12</v>
+      </c>
+      <c r="S45" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="3">
         <v>2001</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="7" t="s">
+      <c r="G46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="3">
         <v>156</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N46" s="7">
+      <c r="K46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="7" t="s">
+      <c r="O46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q46" s="7" t="s">
+      <c r="P46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S46" s="8" t="s">
+      <c r="R46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S46" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" t="s">
         <v>536</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" t="s">
         <v>535</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47">
         <v>2000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="3" t="s">
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
         <v>10</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47">
         <v>156</v>
       </c>
-      <c r="K47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="K47" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47">
         <v>500</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="O47" t="s">
         <v>19</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q47" s="5" t="s">
+      <c r="P47" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q47" t="s">
         <v>22</v>
       </c>
-      <c r="R47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S47" s="2" t="s">
+      <c r="R47" t="s">
+        <v>12</v>
+      </c>
+      <c r="S47" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
     </row>
@@ -4870,7 +4863,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D2FA01-91EE-484E-849B-4CF66E2E4B8A}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -4878,176 +4871,168 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="11"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>539</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" t="s">
         <v>537</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" t="s">
         <v>538</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" t="s">
         <v>538</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="4"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>535</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <v>156</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" t="s">
         <v>12</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5070,13 +5055,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>37</v>
       </c>
     </row>

--- a/query.xlsx
+++ b/query.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kingmob/Library/Mobile Documents/com~apple~CloudDocs/PhD/Research/code/comtrade_pull/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE938F07-B280-6441-9001-3C4D77478346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376D8DAC-F33B-B249-8C68-6B3E4147FE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{11ED8391-85B0-9A44-BFED-FD8A7506F3DC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="543">
   <si>
     <t>C</t>
   </si>
@@ -1664,9 +1664,6 @@
   </si>
   <si>
     <t>num</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>0</t>
@@ -2050,7 +2047,7 @@
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2376,7 +2373,7 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>542</v>
       </c>
       <c r="C6" t="s">
@@ -2494,7 +2491,7 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>542</v>
       </c>
       <c r="C8" t="s">
@@ -2554,7 +2551,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -2613,7 +2610,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -2672,7 +2669,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
@@ -2731,7 +2728,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -2790,7 +2787,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>0</v>
@@ -2849,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -2908,7 +2905,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>0</v>
@@ -2967,7 +2964,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -3026,7 +3023,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>0</v>
@@ -3085,7 +3082,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -3144,7 +3141,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>0</v>
@@ -3203,7 +3200,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -3262,7 +3259,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>0</v>
@@ -3321,7 +3318,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -3380,7 +3377,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
@@ -3439,7 +3436,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -3498,7 +3495,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C25" t="s">
         <v>536</v>
@@ -3557,7 +3554,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>536</v>
@@ -3616,7 +3613,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C27" t="s">
         <v>536</v>
@@ -3675,7 +3672,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>536</v>
@@ -3734,7 +3731,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C29" t="s">
         <v>536</v>
@@ -3793,7 +3790,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>536</v>
@@ -3852,7 +3849,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C31" t="s">
         <v>536</v>
@@ -3911,7 +3908,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>536</v>
@@ -3970,7 +3967,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C33" t="s">
         <v>536</v>
@@ -4029,7 +4026,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>536</v>
@@ -4088,7 +4085,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C35" t="s">
         <v>536</v>
@@ -4147,7 +4144,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>536</v>
@@ -4206,7 +4203,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C37" t="s">
         <v>536</v>
@@ -4265,7 +4262,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>536</v>
@@ -4324,7 +4321,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C39" t="s">
         <v>536</v>
@@ -4383,7 +4380,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>536</v>
@@ -4442,7 +4439,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C41" t="s">
         <v>536</v>
@@ -4501,7 +4498,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>536</v>
@@ -4560,7 +4557,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C43" t="s">
         <v>536</v>
@@ -4619,7 +4616,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>536</v>
@@ -4678,7 +4675,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C45" t="s">
         <v>536</v>
@@ -4737,7 +4734,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>536</v>
@@ -4796,7 +4793,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C47" t="s">
         <v>536</v>
